--- a/practice.xlsx
+++ b/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\guess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GUESS\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D2281D-811D-4E01-936E-D2656788F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089B374-809B-41E9-ACD1-25AA8D9CFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C2B1E08E-9995-4742-96B6-F5E40664263E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C2B1E08E-9995-4742-96B6-F5E40664263E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,13 +59,13 @@
     <t>Park</t>
   </si>
   <si>
-    <t>Baum</t>
-  </si>
-  <si>
     <t>Wand</t>
   </si>
   <si>
     <t>Pfote</t>
+  </si>
+  <si>
+    <t>Spielplatz</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -175,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,15 +474,15 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,15 +490,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -506,20 +506,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -527,11 +527,11 @@
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice.xlsx
+++ b/practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GUESS\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F089B374-809B-41E9-ACD1-25AA8D9CFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A13D6-0DD3-48C0-9640-289157B72704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C2B1E08E-9995-4742-96B6-F5E40664263E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2B1E08E-9995-4742-96B6-F5E40664263E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,34 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Fenster</t>
+  </si>
+  <si>
+    <t>Frühstück</t>
+  </si>
+  <si>
+    <t>Brot</t>
+  </si>
+  <si>
+    <t>Hund</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Pfote</t>
+  </si>
+  <si>
+    <t>Spielplatz</t>
+  </si>
+  <si>
     <t>cue</t>
   </si>
   <si>
     <t>target</t>
-  </si>
-  <si>
-    <t>Fenster</t>
-  </si>
-  <si>
-    <t>Frühstück</t>
-  </si>
-  <si>
-    <t>Brot</t>
-  </si>
-  <si>
-    <t>Hund</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>Wand</t>
-  </si>
-  <si>
-    <t>Pfote</t>
-  </si>
-  <si>
-    <t>Spielplatz</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,42 +484,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
